--- a/testdata/usercradentials.xlsx
+++ b/testdata/usercradentials.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amar.biradar\Desktop\python\Automation\Optima_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amar.biradar\Desktop\python\Optima\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="7130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cradentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>username</t>
   </si>
@@ -36,6 +37,63 @@
   </si>
   <si>
     <t>Amar@2025</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>Parent_company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>subsidiary</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>email_addres</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>contact_name</t>
+  </si>
+  <si>
+    <t>test_user</t>
+  </si>
+  <si>
+    <t>test_company</t>
+  </si>
+  <si>
+    <t>test_address</t>
+  </si>
+  <si>
+    <t>test_department</t>
+  </si>
+  <si>
+    <t>test_subsidiary</t>
+  </si>
+  <si>
+    <t>test_location</t>
+  </si>
+  <si>
+    <t>test_email</t>
+  </si>
+  <si>
+    <t>test_comments</t>
+  </si>
+  <si>
+    <t>test_contact_name</t>
   </si>
 </sst>
 </file>
@@ -366,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -392,4 +450,95 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>